--- a/app/src/docs/webservices/buggy.xlsx
+++ b/app/src/docs/webservices/buggy.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="61">
   <si>
     <t>Update user profile</t>
   </si>
@@ -540,7 +540,34 @@
 hashtag_list: String (e.g. "book,bell,dog")</t>
   </si>
   <si>
-    <t>returns UserName not UserId</t>
+    <t>user.id: int
+review.id: int
+text: String
+rate: int</t>
+  </si>
+  <si>
+    <t>Update review</t>
+  </si>
+  <si>
+    <t>returns UserName not UserId
+Error 8 sometimes</t>
+  </si>
+  <si>
+    <t>{"Error":{"ErrorCode":"Parameter is not valid."},"Result":"","SuccessStatus":false}</t>
+  </si>
+  <si>
+    <t>comment.id:int
+post.id: int
+post_picture.id: int
+user_profile_picture.id: int
+text:String
+interval_time: int</t>
+  </si>
+  <si>
+    <t>user.id: int (business owner)</t>
+  </si>
+  <si>
+    <t>Get last comment notification</t>
   </si>
 </sst>
 </file>
@@ -650,7 +677,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -675,7 +702,6 @@
     <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -692,6 +718,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -974,10 +1004,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1017,7 +1047,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" ht="315" x14ac:dyDescent="0.25">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="13" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -1031,7 +1061,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" ht="300" x14ac:dyDescent="0.25">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="16" t="s">
         <v>10</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -1045,7 +1075,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="120" x14ac:dyDescent="0.25">
-      <c r="A6" s="17" t="s">
+      <c r="A6" s="16" t="s">
         <v>13</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -1087,7 +1117,7 @@
       </c>
     </row>
     <row r="10" spans="1:5" ht="315" x14ac:dyDescent="0.25">
-      <c r="A10" s="15" t="s">
+      <c r="A10" s="14" t="s">
         <v>22</v>
       </c>
       <c r="B10" s="2" t="s">
@@ -1101,7 +1131,7 @@
       </c>
     </row>
     <row r="11" spans="1:5" ht="270" x14ac:dyDescent="0.25">
-      <c r="A11" s="17" t="s">
+      <c r="A11" s="16" t="s">
         <v>26</v>
       </c>
       <c r="B11" s="2" t="s">
@@ -1110,13 +1140,13 @@
       <c r="C11" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D11" s="16"/>
+      <c r="D11" s="15"/>
       <c r="E11" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="105" x14ac:dyDescent="0.25">
-      <c r="A12" s="15" t="s">
+      <c r="A12" s="14" t="s">
         <v>29</v>
       </c>
       <c r="B12" s="3" t="s">
@@ -1153,12 +1183,12 @@
       <c r="C14" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D14" s="10" t="s">
-        <v>54</v>
+      <c r="D14" s="18" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="150" x14ac:dyDescent="0.25">
-      <c r="A15" s="14" t="s">
+      <c r="A15" s="13" t="s">
         <v>39</v>
       </c>
       <c r="B15" s="2" t="s">
@@ -1167,7 +1197,7 @@
       <c r="C15" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D15" s="11" t="s">
+      <c r="D15" s="10" t="s">
         <v>52</v>
       </c>
     </row>
@@ -1186,7 +1216,7 @@
       </c>
     </row>
     <row r="17" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="15" t="s">
+      <c r="A17" s="14" t="s">
         <v>45</v>
       </c>
       <c r="B17" s="2" t="s">
@@ -1195,11 +1225,11 @@
       <c r="C17" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D17" s="12" t="s">
+      <c r="D17" s="11" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="18" spans="1:4" s="13" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" s="12" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>47</v>
       </c>
@@ -1211,6 +1241,34 @@
       </c>
       <c r="D18" s="7" t="s">
         <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" s="17" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" s="17" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>

--- a/app/src/docs/webservices/buggy.xlsx
+++ b/app/src/docs/webservices/buggy.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="59">
   <si>
     <t>Update user profile</t>
   </si>
@@ -299,29 +299,6 @@
     hashtag_list: list:{String}
 }
 </t>
-    </r>
-  </si>
-  <si>
-    <t>Get business' followers</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">list:{
-    user.id: int
-    user_id: String
-    </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>user_profile_picture_name: String (small)
-    user_profile_picture.id: int
-}</t>
     </r>
   </si>
   <si>
@@ -1006,8 +983,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1037,7 +1014,7 @@
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>5</v>
@@ -1142,133 +1119,119 @@
       </c>
       <c r="D11" s="15"/>
       <c r="E11" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="105" x14ac:dyDescent="0.25">
-      <c r="A12" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="195" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="D13" s="5" t="s">
         <v>33</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="135" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="D14" s="18" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="150" x14ac:dyDescent="0.25">
       <c r="A15" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>41</v>
-      </c>
       <c r="D15" s="10" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="18" spans="1:4" s="12" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="D18" s="7" t="s">
         <v>48</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:4" s="17" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20" spans="1:4" s="17" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/app/src/docs/webservices/buggy.xlsx
+++ b/app/src/docs/webservices/buggy.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="62">
   <si>
     <t>Update user profile</t>
   </si>
@@ -546,6 +546,17 @@
   <si>
     <t>Get last comment notification</t>
   </si>
+  <si>
+    <t>applicator_user.id: int
+requested_user.id: int</t>
+  </si>
+  <si>
+    <t>Request friendship</t>
+  </si>
+  <si>
+    <t>returns all records in FriendshipRequest table which RequestUserId = 3 not just records
+with ReqStatusId = 3</t>
+  </si>
 </sst>
 </file>
 
@@ -554,7 +565,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]General"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -598,6 +609,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="5" tint="-0.249977111117893"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -654,7 +672,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -700,6 +718,7 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Excel Built-in Normal" xfId="1"/>
@@ -981,16 +1000,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22:XFD22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="30" customWidth="1"/>
-    <col min="2" max="2" width="26.140625" customWidth="1"/>
+    <col min="2" max="2" width="45" customWidth="1"/>
     <col min="3" max="3" width="28.5703125" customWidth="1"/>
     <col min="4" max="4" width="83.7109375" customWidth="1"/>
   </cols>
@@ -1234,6 +1253,20 @@
         <v>55</v>
       </c>
     </row>
+    <row r="21" spans="1:4" s="19" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>61</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/app/src/docs/webservices/buggy.xlsx
+++ b/app/src/docs/webservices/buggy.xlsx
@@ -530,9 +530,6 @@
 Error 8 sometimes</t>
   </si>
   <si>
-    <t>{"Error":{"ErrorCode":"Parameter is not valid."},"Result":"","SuccessStatus":false}</t>
-  </si>
-  <si>
     <t>comment.id:int
 post.id: int
 post_picture.id: int
@@ -556,6 +553,9 @@
   <si>
     <t>returns all records in FriendshipRequest table which RequestUserId = 3 not just records
 with ReqStatusId = 3</t>
+  </si>
+  <si>
+    <t>returns the comment wrote by the user himself</t>
   </si>
 </sst>
 </file>
@@ -1003,7 +1003,7 @@
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22:XFD22"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1241,30 +1241,30 @@
     </row>
     <row r="20" spans="1:4" s="17" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
     </row>
     <row r="21" spans="1:4" s="19" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/app/src/docs/webservices/buggy.xlsx
+++ b/app/src/docs/webservices/buggy.xlsx
@@ -1002,8 +1002,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
